--- a/Cities List/50 Largest US Cities 2018.xlsx
+++ b/Cities List/50 Largest US Cities 2018.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel chacreton\Documents\Coding\Social-Media-Data-Project\Cities List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\Social-Media-Data-Project\Cities List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFE3B9-89A1-472A-9C8C-D5C835779A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{41DFE3B9-89A1-472A-9C8C-D5C835779A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EE09048E-FE9C-421F-B2CC-EC232D6EE313}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CE314214-9AD9-4E90-868A-B43793A5B3D9}"/>
+    <workbookView xWindow="52680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE314214-9AD9-4E90-868A-B43793A5B3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="STATE ABV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1950,21 +1950,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019F9B2-93E3-4ABA-94A8-2B031CA9F654}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" style="2"/>
+    <col min="8" max="13" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2008,2020 +2008,2024 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" t="str">
         <f>MID(B2,FIND(",",B2)+2,100)</f>
-        <v>New York</v>
+        <v>New Mexico</v>
       </c>
       <c r="D2" t="str">
         <f>MID(B2,1,FIND(",",B2)-1)</f>
-        <v>New York city</v>
+        <v>Albuquerque city</v>
       </c>
       <c r="E2">
-        <v>8398748</v>
+        <v>560218</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>499</v>
+        <v>79</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(D2,3)</f>
+        <v>Alb</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="N2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C51" si="0">MID(B3,FIND(",",B3)+2,100)</f>
-        <v>California</v>
+        <f>MID(B3,FIND(",",B3)+2,100)</f>
+        <v>Texas</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D51" si="1">MID(B3,1,FIND(",",B3)-1)</f>
-        <v>Los Angeles city</v>
+        <f>MID(B3,1,FIND(",",B3)-1)</f>
+        <v>Arlington city</v>
       </c>
       <c r="E3">
-        <v>3990456</v>
+        <v>398112</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>501</v>
+        <v>95</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LEFT(D3,3)</f>
+        <v>Arl</v>
       </c>
       <c r="N3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Illinois</v>
+        <f>MID(B4,FIND(",",B4)+2,100)</f>
+        <v>Georgia</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>Chicago city</v>
+        <f>MID(B4,1,FIND(",",B4)-1)</f>
+        <v>Atlanta city</v>
       </c>
       <c r="E4">
-        <v>2705994</v>
+        <v>498044</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G3:G51" si="2">LEFT(D4,3)</f>
-        <v>Chi</v>
+        <f>LEFT(D4,3)</f>
+        <v>Atl</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>477</v>
+        <v>436</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="N4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B5,FIND(",",B5)+2,100)</f>
         <v>Texas</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>Houston city</v>
+        <f>MID(B5,1,FIND(",",B5)-1)</f>
+        <v>Austin city</v>
       </c>
       <c r="E5">
-        <v>2325502</v>
+        <v>964254</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>Hou</v>
+        <f>LEFT(D5,3)</f>
+        <v>Aus</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>353</v>
+        <v>478</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>316</v>
+        <v>479</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="N5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Arizona</v>
+        <f>MID(B6,FIND(",",B6)+2,100)</f>
+        <v>Maryland</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>Phoenix city</v>
+        <f>MID(B6,1,FIND(",",B6)-1)</f>
+        <v>Baltimore city</v>
       </c>
       <c r="E6">
-        <v>1660272</v>
+        <v>602495</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>Pho</v>
+        <f>LEFT(D6,3)</f>
+        <v>Bal</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pennsylvania</v>
+        <f>MID(B7,FIND(",",B7)+2,100)</f>
+        <v>Massachusetts</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>Philadelphia city</v>
+        <f>MID(B7,1,FIND(",",B7)-1)</f>
+        <v>Boston city</v>
       </c>
       <c r="E7">
-        <v>1584138</v>
+        <v>694583</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>Phi</v>
+        <f>LEFT(D7,3)</f>
+        <v>Bos</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>357</v>
+        <v>508</v>
       </c>
       <c r="N7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas</v>
+        <f>MID(B8,FIND(",",B8)+2,100)</f>
+        <v>North Carolina</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>San Antonio city</v>
+        <f>MID(B8,1,FIND(",",B8)-1)</f>
+        <v>Charlotte city</v>
       </c>
       <c r="E8">
-        <v>1532233</v>
+        <v>872498</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>San</v>
+        <f>LEFT(D8,3)</f>
+        <v>Cha</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>498</v>
+        <v>321</v>
       </c>
       <c r="N8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
+        <f>MID(B9,FIND(",",B9)+2,100)</f>
+        <v>Illinois</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>San Diego city</v>
+        <f>MID(B9,1,FIND(",",B9)-1)</f>
+        <v>Chicago city</v>
       </c>
       <c r="E9">
-        <v>1425976</v>
+        <v>2705994</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>San</v>
+        <f>LEFT(D9,3)</f>
+        <v>Chi</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="N9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas</v>
+        <f>MID(B10,FIND(",",B10)+2,100)</f>
+        <v>Colorado</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Dallas city</v>
+        <f>MID(B10,1,FIND(",",B10)-1)</f>
+        <v>Colorado Springs city</v>
       </c>
       <c r="E10">
-        <v>1345047</v>
+        <v>472688</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>Dal</v>
+        <f>LEFT(D10,3)</f>
+        <v>Col</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>504</v>
+        <v>331</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="N10" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
+        <f>MID(B11,FIND(",",B11)+2,100)</f>
+        <v>Ohio</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>San Jose city</v>
+        <f>MID(B11,1,FIND(",",B11)-1)</f>
+        <v>Columbus city</v>
       </c>
       <c r="E11">
-        <v>1030119</v>
+        <v>892533</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>San</v>
+        <f>LEFT(D11,3)</f>
+        <v>Col</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>497</v>
+        <v>321</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B12,FIND(",",B12)+2,100)</f>
         <v>Texas</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>Austin city</v>
+        <f>MID(B12,1,FIND(",",B12)-1)</f>
+        <v>Dallas city</v>
       </c>
       <c r="E12">
-        <v>964254</v>
+        <v>1345047</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>Aus</v>
+        <f>LEFT(D12,3)</f>
+        <v>Dal</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>478</v>
+        <v>362</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>479</v>
+        <v>319</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="N12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Florida</v>
+        <f>MID(B13,FIND(",",B13)+2,100)</f>
+        <v>Colorado</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>Jacksonville city</v>
+        <f>MID(B13,1,FIND(",",B13)-1)</f>
+        <v>Denver city</v>
       </c>
       <c r="E13">
-        <v>903889</v>
+        <v>716492</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>Jac</v>
+        <f>LEFT(D13,3)</f>
+        <v>Den</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>505</v>
+        <v>328</v>
       </c>
       <c r="N13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas</v>
+        <f>MID(B14,FIND(",",B14)+2,100)</f>
+        <v>Michigan</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>Fort Worth city</v>
+        <f>MID(B14,1,FIND(",",B14)-1)</f>
+        <v>Detroit city</v>
       </c>
       <c r="E14">
-        <v>895008</v>
+        <v>672662</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>For</v>
+        <f>LEFT(D14,3)</f>
+        <v>Det</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>506</v>
+        <v>376</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Ohio</v>
+        <f>MID(B15,FIND(",",B15)+2,100)</f>
+        <v>Texas</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Columbus city</v>
+        <f>MID(B15,1,FIND(",",B15)-1)</f>
+        <v>El Paso city</v>
       </c>
       <c r="E15">
-        <v>892533</v>
+        <v>682669</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>Col</v>
+        <f>LEFT(D15,3)</f>
+        <v xml:space="preserve">El </v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>371</v>
+        <v>509</v>
       </c>
       <c r="N15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
+        <f>MID(B16,FIND(",",B16)+2,100)</f>
+        <v>Texas</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>San Francisco city</v>
+        <f>MID(B16,1,FIND(",",B16)-1)</f>
+        <v>Fort Worth city</v>
       </c>
       <c r="E16">
-        <v>883305</v>
+        <v>895008</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>San</v>
+        <f>LEFT(D16,3)</f>
+        <v>For</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N16" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>North Carolina</v>
+        <f>MID(B17,FIND(",",B17)+2,100)</f>
+        <v>California</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>Charlotte city</v>
+        <f>MID(B17,1,FIND(",",B17)-1)</f>
+        <v>Fresno city</v>
       </c>
       <c r="E17">
-        <v>872498</v>
+        <v>530093</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>Cha</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>372</v>
+        <f>LEFT(D17,3)</f>
+        <v>Fre</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
       <c r="N17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Indiana</v>
+        <f>MID(B18,FIND(",",B18)+2,100)</f>
+        <v>Texas</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Indianapolis city</v>
+        <f>MID(B18,1,FIND(",",B18)-1)</f>
+        <v>Houston city</v>
       </c>
       <c r="E18">
-        <v>867125</v>
+        <v>2325502</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>Ind</v>
+        <f>LEFT(D18,3)</f>
+        <v>Hou</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="N18" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>487</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Washington</v>
+        <f>MID(B19,FIND(",",B19)+2,100)</f>
+        <v>Indiana</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Seattle city</v>
+        <f>MID(B19,1,FIND(",",B19)-1)</f>
+        <v>Indianapolis city</v>
       </c>
       <c r="E19">
-        <v>744955</v>
+        <v>867125</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>Sea</v>
+        <f>LEFT(D19,3)</f>
+        <v>Ind</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="N19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Colorado</v>
+        <f>MID(B20,FIND(",",B20)+2,100)</f>
+        <v>Florida</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>Denver city</v>
+        <f>MID(B20,1,FIND(",",B20)-1)</f>
+        <v>Jacksonville city</v>
       </c>
       <c r="E20">
-        <v>716492</v>
+        <v>903889</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>Den</v>
+        <f>LEFT(D20,3)</f>
+        <v>Jac</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="N20" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>District of Columbia</v>
+        <f>MID(B21,FIND(",",B21)+2,100)</f>
+        <v>Missouri</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>Washington city</v>
+        <f>MID(B21,1,FIND(",",B21)-1)</f>
+        <v>Kansas City city</v>
       </c>
       <c r="E21">
-        <v>702455</v>
+        <v>491918</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>Was</v>
+        <f>LEFT(D21,3)</f>
+        <v>Kan</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>344</v>
+        <v>441</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="N21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Massachusetts</v>
+        <f>MID(B22,FIND(",",B22)+2,100)</f>
+        <v>Nevada</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>Boston city</v>
+        <f>MID(B22,1,FIND(",",B22)-1)</f>
+        <v>Las Vegas city</v>
       </c>
       <c r="E22">
-        <v>694583</v>
+        <v>644644</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>Bos</v>
+        <f>LEFT(D22,3)</f>
+        <v>Las</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>508</v>
+        <v>393</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="N22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas</v>
+        <f>MID(B23,FIND(",",B23)+2,100)</f>
+        <v>California</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>El Paso city</v>
+        <f>MID(B23,1,FIND(",",B23)-1)</f>
+        <v>Long Beach city</v>
       </c>
       <c r="E23">
-        <v>682669</v>
+        <v>467354</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">El </v>
+        <f>LEFT(D23,3)</f>
+        <v>Lon</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>509</v>
+        <v>490</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="N23" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Michigan</v>
+        <f>MID(B24,FIND(",",B24)+2,100)</f>
+        <v>California</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>Detroit city</v>
+        <f>MID(B24,1,FIND(",",B24)-1)</f>
+        <v>Los Angeles city</v>
       </c>
       <c r="E24">
-        <v>672662</v>
+        <v>3990456</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>Det</v>
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>376</v>
+        <v>256</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="N24" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>Tennessee</v>
+        <f>MID(B25,FIND(",",B25)+2,100)</f>
+        <v>Kentucky</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>Nashville-Davidson</v>
+        <f>MID(B25,1,FIND(",",B25)-1)</f>
+        <v>Louisville/Jefferson County</v>
       </c>
       <c r="E25">
-        <v>669053</v>
+        <v>620118</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>Nas</v>
+        <f>LEFT(D25,3)</f>
+        <v>Lou</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>380</v>
+        <v>395</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="N25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>Oregon</v>
+        <f>MID(B26,FIND(",",B26)+2,100)</f>
+        <v>Tennessee</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>Portland city</v>
+        <f>MID(B26,1,FIND(",",B26)-1)</f>
+        <v>Memphis city</v>
       </c>
       <c r="E26">
-        <v>653115</v>
+        <v>650618</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>Por</v>
+        <f>LEFT(D26,3)</f>
+        <v>Mem</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N26" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>Tennessee</v>
+        <f>MID(B27,FIND(",",B27)+2,100)</f>
+        <v>Arizona</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>Memphis city</v>
+        <f>MID(B27,1,FIND(",",B27)-1)</f>
+        <v>Mesa city</v>
       </c>
       <c r="E27">
-        <v>650618</v>
+        <v>508958</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>Mem</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>387</v>
+        <f>LEFT(D27,3)</f>
+        <v>Mes</v>
       </c>
       <c r="N27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>Oklahoma</v>
+        <f>MID(B28,FIND(",",B28)+2,100)</f>
+        <v>Florida</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>Oklahoma City city</v>
+        <f>MID(B28,1,FIND(",",B28)-1)</f>
+        <v>Miami city</v>
       </c>
       <c r="E28">
-        <v>649021</v>
+        <v>470914</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>Okl</v>
+        <f>LEFT(D28,3)</f>
+        <v>Mia</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>494</v>
+        <v>443</v>
+      </c>
+      <c r="K28" s="2">
+        <v>305</v>
       </c>
       <c r="N28" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="str">
+        <f>MID(B29,FIND(",",B29)+2,100)</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="D29" t="str">
+        <f>MID(B29,1,FIND(",",B29)-1)</f>
+        <v>Milwaukee city</v>
+      </c>
+      <c r="E29">
+        <v>592025</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="str">
+        <f>LEFT(D29,3)</f>
+        <v>Mil</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="str">
+        <f>MID(B30,FIND(",",B30)+2,100)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="D30" t="str">
+        <f>MID(B30,1,FIND(",",B30)-1)</f>
+        <v>Minneapolis city</v>
+      </c>
+      <c r="E30">
+        <v>425403</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="str">
+        <f>LEFT(D30,3)</f>
+        <v>Min</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" t="str">
+        <f>MID(B31,FIND(",",B31)+2,100)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="D31" t="str">
+        <f>MID(B31,1,FIND(",",B31)-1)</f>
+        <v>Nashville-Davidson</v>
+      </c>
+      <c r="E31">
+        <v>669053</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="str">
+        <f>LEFT(D31,3)</f>
+        <v>Nas</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="str">
+        <f>MID(B32,FIND(",",B32)+2,100)</f>
+        <v>Louisiana</v>
+      </c>
+      <c r="D32" t="str">
+        <f>MID(B32,1,FIND(",",B32)-1)</f>
+        <v>New Orleans city</v>
+      </c>
+      <c r="E32">
+        <v>391006</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="str">
+        <f>LEFT(D32,3)</f>
+        <v>New</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="N32" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f>MID(B33,FIND(",",B33)+2,100)</f>
+        <v>New York</v>
+      </c>
+      <c r="D33" t="str">
+        <f>MID(B33,1,FIND(",",B33)-1)</f>
+        <v>New York city</v>
+      </c>
+      <c r="E33">
+        <v>8398748</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="str">
+        <f>MID(B34,FIND(",",B34)+2,100)</f>
+        <v>California</v>
+      </c>
+      <c r="D34" t="str">
+        <f>MID(B34,1,FIND(",",B34)-1)</f>
+        <v>Oakland city</v>
+      </c>
+      <c r="E34">
+        <v>429082</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="str">
+        <f>LEFT(D34,3)</f>
+        <v>Oak</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>27</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>Nevada</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>Las Vegas city</v>
-      </c>
-      <c r="E29">
-        <v>644644</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>Las</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="str">
+        <f>MID(B35,FIND(",",B35)+2,100)</f>
+        <v>Oklahoma</v>
+      </c>
+      <c r="D35" t="str">
+        <f>MID(B35,1,FIND(",",B35)-1)</f>
+        <v>Oklahoma City city</v>
+      </c>
+      <c r="E35">
+        <v>649021</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="str">
+        <f>LEFT(D35,3)</f>
+        <v>Okl</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N35" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>486</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>Kentucky</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>Louisville/Jefferson County</v>
-      </c>
-      <c r="E30">
-        <v>620118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>Lou</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="N30" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="str">
+        <f>MID(B36,FIND(",",B36)+2,100)</f>
+        <v>Nebraska</v>
+      </c>
+      <c r="D36" t="str">
+        <f>MID(B36,1,FIND(",",B36)-1)</f>
+        <v>Omaha city</v>
+      </c>
+      <c r="E36">
+        <v>468262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="str">
+        <f>LEFT(D36,3)</f>
+        <v>Oma</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="str">
+        <f>MID(B37,FIND(",",B37)+2,100)</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="D37" t="str">
+        <f>MID(B37,1,FIND(",",B37)-1)</f>
+        <v>Philadelphia city</v>
+      </c>
+      <c r="E37">
+        <v>1584138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="str">
+        <f>LEFT(D37,3)</f>
+        <v>Phi</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N37" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>Maryland</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>Baltimore city</v>
-      </c>
-      <c r="E31">
-        <v>602495</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="2"/>
-        <v>Bal</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>Wisconsin</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>Milwaukee city</v>
-      </c>
-      <c r="E32">
-        <v>592025</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="2"/>
-        <v>Mil</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="N32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>New Mexico</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>Albuquerque city</v>
-      </c>
-      <c r="E33">
-        <v>560218</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>Alb</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="N33" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="str">
+        <f>MID(B38,FIND(",",B38)+2,100)</f>
         <v>Arizona</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>Tucson city</v>
-      </c>
-      <c r="E34">
-        <v>545975</v>
-      </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>Tuc</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="N34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>Fresno city</v>
-      </c>
-      <c r="E35">
-        <v>530093</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>Fre</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="N35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>Arizona</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>Mesa city</v>
-      </c>
-      <c r="E36">
-        <v>508958</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mes</v>
-      </c>
-      <c r="N36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>Sacramento city</v>
-      </c>
-      <c r="E37">
-        <v>508529</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>Sac</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="N37" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>Georgia</v>
-      </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>Atlanta city</v>
+        <f>MID(B38,1,FIND(",",B38)-1)</f>
+        <v>Phoenix city</v>
       </c>
       <c r="E38">
-        <v>498044</v>
+        <v>1660272</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v>Atl</v>
+        <f>LEFT(D38,3)</f>
+        <v>Pho</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>432</v>
+        <v>359</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>433</v>
+        <v>317</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="N38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>Missouri</v>
+        <f>MID(B39,FIND(",",B39)+2,100)</f>
+        <v>Oregon</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>Kansas City city</v>
+        <f>MID(B39,1,FIND(",",B39)-1)</f>
+        <v>Portland city</v>
       </c>
       <c r="E39">
-        <v>491918</v>
+        <v>653115</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v>Kan</v>
+        <f>LEFT(D39,3)</f>
+        <v>Por</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>442</v>
+        <v>383</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="N39" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>Colorado</v>
+        <f>MID(B40,FIND(",",B40)+2,100)</f>
+        <v>North Carolina</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>Colorado Springs city</v>
+        <f>MID(B40,1,FIND(",",B40)-1)</f>
+        <v>Raleigh city</v>
       </c>
       <c r="E40">
-        <v>472688</v>
+        <v>469298</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v>Col</v>
+        <f>LEFT(D40,3)</f>
+        <v>Ral</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="N40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="str">
+        <f>MID(B41,FIND(",",B41)+2,100)</f>
+        <v>California</v>
+      </c>
+      <c r="D41" t="str">
+        <f>MID(B41,1,FIND(",",B41)-1)</f>
+        <v>Sacramento city</v>
+      </c>
+      <c r="E41">
+        <v>508529</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="str">
+        <f>LEFT(D41,3)</f>
+        <v>Sac</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="str">
+        <f>MID(B42,FIND(",",B42)+2,100)</f>
+        <v>Texas</v>
+      </c>
+      <c r="D42" t="str">
+        <f>MID(B42,1,FIND(",",B42)-1)</f>
+        <v>San Antonio city</v>
+      </c>
+      <c r="E42">
+        <v>1532233</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="str">
+        <f>LEFT(D42,3)</f>
+        <v>San</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N42" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>Florida</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>Miami city</v>
-      </c>
-      <c r="E41">
-        <v>470914</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="2"/>
-        <v>Mia</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K41" s="2">
-        <v>305</v>
-      </c>
-      <c r="N41" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="str">
+        <f>MID(B43,FIND(",",B43)+2,100)</f>
+        <v>California</v>
+      </c>
+      <c r="D43" t="str">
+        <f>MID(B43,1,FIND(",",B43)-1)</f>
+        <v>San Diego city</v>
+      </c>
+      <c r="E43">
+        <v>1425976</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="str">
+        <f>LEFT(D43,3)</f>
+        <v>San</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N43" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>North Carolina</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>Raleigh city</v>
-      </c>
-      <c r="E42">
-        <v>469298</v>
-      </c>
-      <c r="F42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v>Ral</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="N42" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>Nebraska</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>Omaha city</v>
-      </c>
-      <c r="E43">
-        <v>468262</v>
-      </c>
-      <c r="F43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v>Oma</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="N43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B44,FIND(",",B44)+2,100)</f>
         <v>California</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>Long Beach city</v>
+        <f>MID(B44,1,FIND(",",B44)-1)</f>
+        <v>San Francisco city</v>
       </c>
       <c r="E44">
-        <v>467354</v>
+        <v>883305</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v>Lon</v>
+        <f>LEFT(D44,3)</f>
+        <v>San</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>490</v>
+        <v>322</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>491</v>
+        <v>313</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>492</v>
+        <v>367</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="N44" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="str">
+        <f>MID(B45,FIND(",",B45)+2,100)</f>
+        <v>California</v>
+      </c>
+      <c r="D45" t="str">
+        <f>MID(B45,1,FIND(",",B45)-1)</f>
+        <v>San Jose city</v>
+      </c>
+      <c r="E45">
+        <v>1030119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="str">
+        <f>LEFT(D45,3)</f>
+        <v>San</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N45" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="str">
+        <f>MID(B46,FIND(",",B46)+2,100)</f>
+        <v>Washington</v>
+      </c>
+      <c r="D46" t="str">
+        <f>MID(B46,1,FIND(",",B46)-1)</f>
+        <v>Seattle city</v>
+      </c>
+      <c r="E46">
+        <v>744955</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="str">
+        <f>LEFT(D46,3)</f>
+        <v>Sea</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="str">
+        <f>MID(B47,FIND(",",B47)+2,100)</f>
+        <v>Florida</v>
+      </c>
+      <c r="D47" t="str">
+        <f>MID(B47,1,FIND(",",B47)-1)</f>
+        <v>Tampa city</v>
+      </c>
+      <c r="E47">
+        <v>392890</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="str">
+        <f>LEFT(D47,3)</f>
+        <v>Tam</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="str">
+        <f>MID(B48,FIND(",",B48)+2,100)</f>
+        <v>Arizona</v>
+      </c>
+      <c r="D48" t="str">
+        <f>MID(B48,1,FIND(",",B48)-1)</f>
+        <v>Tucson city</v>
+      </c>
+      <c r="E48">
+        <v>545975</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="str">
+        <f>LEFT(D48,3)</f>
+        <v>Tuc</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="N48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="str">
+        <f>MID(B49,FIND(",",B49)+2,100)</f>
+        <v>Oklahoma</v>
+      </c>
+      <c r="D49" t="str">
+        <f>MID(B49,1,FIND(",",B49)-1)</f>
+        <v>Tulsa city</v>
+      </c>
+      <c r="E49">
+        <v>400669</v>
+      </c>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" t="str">
+        <f>LEFT(D49,3)</f>
+        <v>Tul</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
+      <c r="C50" t="str">
+        <f>MID(B50,FIND(",",B50)+2,100)</f>
         <v>Virginia</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
+      <c r="D50" t="str">
+        <f>MID(B50,1,FIND(",",B50)-1)</f>
         <v>Virginia Beach city</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>450189</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F50" t="s">
         <v>91</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="2"/>
+      <c r="G50" t="str">
+        <f>LEFT(D50,3)</f>
         <v>Vir</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N50" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>California</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>Oakland city</v>
-      </c>
-      <c r="E46">
-        <v>429082</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="2"/>
-        <v>Oak</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="N46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>Minnesota</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>Minneapolis city</v>
-      </c>
-      <c r="E47">
-        <v>425403</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>Min</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>Oklahoma</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>Tulsa city</v>
-      </c>
-      <c r="E48">
-        <v>400669</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v>Tul</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="N48" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>Arlington city</v>
-      </c>
-      <c r="E49">
-        <v>398112</v>
-      </c>
-      <c r="F49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v>Arl</v>
-      </c>
-      <c r="N49" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>Florida</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>Tampa city</v>
-      </c>
-      <c r="E50">
-        <v>392890</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v>Tam</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>Louisiana</v>
+        <f>MID(B51,FIND(",",B51)+2,100)</f>
+        <v>District of Columbia</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>New Orleans city</v>
+        <f>MID(B51,1,FIND(",",B51)-1)</f>
+        <v>Washington city</v>
       </c>
       <c r="E51">
-        <v>391006</v>
+        <v>702455</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v>New</v>
+        <f>LEFT(D51,3)</f>
+        <v>Was</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>473</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s">
         <v>471</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N51" xr:uid="{E4BC68AB-31DC-41C5-8798-F2941C17EBB8}"/>
+  <autoFilter ref="A1:N1" xr:uid="{F093F0AD-A504-47B5-9EF7-9358C0F099EA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N47" r:id="rId1" xr:uid="{34303163-030C-4859-93B4-575F0A461F40}"/>
+    <hyperlink ref="N30" r:id="rId1" xr:uid="{34303163-030C-4859-93B4-575F0A461F40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4032,13 +4036,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C88CD-D08C-4C4F-A13E-1DA507AF6F38}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="str">
-        <f>LEFT(B2,1)&amp;"."&amp;RIGHT(C2,1)</f>
+        <f t="shared" ref="D2:D33" si="0">LEFT(B2,1)&amp;"."&amp;RIGHT(C2,1)</f>
         <v>A.L</v>
       </c>
       <c r="E2" t="str">
@@ -4095,7 +4102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -4106,11 +4113,11 @@
         <v>113</v>
       </c>
       <c r="D3" t="str">
-        <f>LEFT(B3,1)&amp;"."&amp;RIGHT(C3,1)</f>
+        <f t="shared" si="0"/>
         <v>A.K</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E52" si="0">LEFT(C3,1)&amp;"."&amp;RIGHT(D3,1)&amp;"."</f>
+        <f t="shared" ref="E3:E52" si="1">LEFT(C3,1)&amp;"."&amp;RIGHT(D3,1)&amp;"."</f>
         <v>A.K.</v>
       </c>
       <c r="F3" t="s">
@@ -4126,7 +4133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -4137,11 +4144,11 @@
         <v>115</v>
       </c>
       <c r="D4" t="str">
-        <f>LEFT(B4,1)&amp;"."&amp;RIGHT(C4,1)</f>
+        <f t="shared" si="0"/>
         <v>A.Z</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A.Z.</v>
       </c>
       <c r="F4" t="s">
@@ -4151,7 +4158,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -4162,11 +4169,11 @@
         <v>117</v>
       </c>
       <c r="D5" t="str">
-        <f>LEFT(B5,1)&amp;"."&amp;RIGHT(C5,1)</f>
+        <f t="shared" si="0"/>
         <v>A.R</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A.R.</v>
       </c>
       <c r="F5" t="s">
@@ -4176,7 +4183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -4187,11 +4194,11 @@
         <v>120</v>
       </c>
       <c r="D6" t="str">
-        <f>LEFT(B6,1)&amp;"."&amp;RIGHT(C6,1)</f>
+        <f t="shared" si="0"/>
         <v>C.F</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C.F.</v>
       </c>
       <c r="F6" t="s">
@@ -4204,7 +4211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -4215,11 +4222,11 @@
         <v>124</v>
       </c>
       <c r="D7" t="str">
-        <f>LEFT(B7,1)&amp;"."&amp;RIGHT(C7,1)</f>
+        <f t="shared" si="0"/>
         <v>C.L</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C.L.</v>
       </c>
       <c r="F7" t="s">
@@ -4232,7 +4239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -4243,11 +4250,11 @@
         <v>127</v>
       </c>
       <c r="D8" t="str">
-        <f>LEFT(B8,1)&amp;"."&amp;RIGHT(C8,1)</f>
+        <f t="shared" si="0"/>
         <v>C.T</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C.T.</v>
       </c>
       <c r="F8" t="s">
@@ -4257,7 +4264,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -4268,11 +4275,11 @@
         <v>130</v>
       </c>
       <c r="D9" t="str">
-        <f>LEFT(B9,1)&amp;"."&amp;RIGHT(C9,1)</f>
+        <f t="shared" si="0"/>
         <v>D.L</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D.L.</v>
       </c>
       <c r="F9" t="s">
@@ -4282,7 +4289,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -4293,11 +4300,11 @@
         <v>132</v>
       </c>
       <c r="D10" t="str">
-        <f>LEFT(B10,1)&amp;"."&amp;RIGHT(C10,1)</f>
+        <f t="shared" si="0"/>
         <v>D.C</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D.C.</v>
       </c>
       <c r="F10" t="s">
@@ -4307,7 +4314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -4318,11 +4325,11 @@
         <v>134</v>
       </c>
       <c r="D11" t="str">
-        <f>LEFT(B11,1)&amp;"."&amp;RIGHT(C11,1)</f>
+        <f t="shared" si="0"/>
         <v>F.L</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F.L.</v>
       </c>
       <c r="F11" t="s">
@@ -4335,7 +4342,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -4346,11 +4353,11 @@
         <v>137</v>
       </c>
       <c r="D12" t="str">
-        <f>LEFT(B12,1)&amp;"."&amp;RIGHT(C12,1)</f>
+        <f t="shared" si="0"/>
         <v>G.A</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>G.A.</v>
       </c>
       <c r="F12" t="s">
@@ -4363,7 +4370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -4374,11 +4381,11 @@
         <v>141</v>
       </c>
       <c r="D13" t="str">
-        <f>LEFT(B13,1)&amp;"."&amp;RIGHT(C13,1)</f>
+        <f t="shared" si="0"/>
         <v>H.A</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H.A.</v>
       </c>
       <c r="F13" t="s">
@@ -4394,7 +4401,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4405,11 +4412,11 @@
         <v>143</v>
       </c>
       <c r="D14" t="str">
-        <f>LEFT(B14,1)&amp;"."&amp;RIGHT(C14,1)</f>
+        <f t="shared" si="0"/>
         <v>I.D</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>I.D.</v>
       </c>
       <c r="F14" t="s">
@@ -4422,7 +4429,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>279</v>
       </c>
@@ -4433,11 +4440,11 @@
         <v>146</v>
       </c>
       <c r="D15" t="str">
-        <f>LEFT(B15,1)&amp;"."&amp;RIGHT(C15,1)</f>
+        <f t="shared" si="0"/>
         <v>I.L</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>I.L.</v>
       </c>
       <c r="F15" t="s">
@@ -4450,7 +4457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -4461,11 +4468,11 @@
         <v>149</v>
       </c>
       <c r="D16" t="str">
-        <f>LEFT(B16,1)&amp;"."&amp;RIGHT(C16,1)</f>
+        <f t="shared" si="0"/>
         <v>I.N</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>I.N.</v>
       </c>
       <c r="F16" t="s">
@@ -4475,7 +4482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -4486,11 +4493,11 @@
         <v>151</v>
       </c>
       <c r="D17" t="str">
-        <f>LEFT(B17,1)&amp;"."&amp;RIGHT(C17,1)</f>
+        <f t="shared" si="0"/>
         <v>I.A</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>I.A.</v>
       </c>
       <c r="F17" t="s">
@@ -4503,7 +4510,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -4514,11 +4521,11 @@
         <v>155</v>
       </c>
       <c r="D18" t="str">
-        <f>LEFT(B18,1)&amp;"."&amp;RIGHT(C18,1)</f>
+        <f t="shared" si="0"/>
         <v>K.A</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>K.A.</v>
       </c>
       <c r="F18" t="s">
@@ -4531,7 +4538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -4542,11 +4549,11 @@
         <v>159</v>
       </c>
       <c r="D19" t="str">
-        <f>LEFT(B19,1)&amp;"."&amp;RIGHT(C19,1)</f>
+        <f t="shared" si="0"/>
         <v>K.Y</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>K.Y.</v>
       </c>
       <c r="F19" t="s">
@@ -4562,7 +4569,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -4573,11 +4580,11 @@
         <v>161</v>
       </c>
       <c r="D20" t="str">
-        <f>LEFT(B20,1)&amp;"."&amp;RIGHT(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>L.A</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L.A.</v>
       </c>
       <c r="F20" t="s">
@@ -4590,7 +4597,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -4601,11 +4608,11 @@
         <v>164</v>
       </c>
       <c r="D21" t="str">
-        <f>LEFT(B21,1)&amp;"."&amp;RIGHT(C21,1)</f>
+        <f t="shared" si="0"/>
         <v>M.E</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.E.</v>
       </c>
       <c r="F21" t="s">
@@ -4615,7 +4622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -4626,11 +4633,11 @@
         <v>166</v>
       </c>
       <c r="D22" t="str">
-        <f>LEFT(B22,1)&amp;"."&amp;RIGHT(C22,1)</f>
+        <f t="shared" si="0"/>
         <v>M.D</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.D.</v>
       </c>
       <c r="F22" t="s">
@@ -4646,7 +4653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -4657,11 +4664,11 @@
         <v>169</v>
       </c>
       <c r="D23" t="str">
-        <f>LEFT(B23,1)&amp;"."&amp;RIGHT(C23,1)</f>
+        <f t="shared" si="0"/>
         <v>M.S</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.S.</v>
       </c>
       <c r="F23" t="s">
@@ -4671,7 +4678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -4682,11 +4689,11 @@
         <v>172</v>
       </c>
       <c r="D24" t="str">
-        <f>LEFT(B24,1)&amp;"."&amp;RIGHT(C24,1)</f>
+        <f t="shared" si="0"/>
         <v>M.C</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.C.</v>
       </c>
       <c r="F24" t="s">
@@ -4696,7 +4703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -4707,11 +4714,11 @@
         <v>174</v>
       </c>
       <c r="D25" t="str">
-        <f>LEFT(B25,1)&amp;"."&amp;RIGHT(C25,1)</f>
+        <f t="shared" si="0"/>
         <v>M.N</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.N.</v>
       </c>
       <c r="F25" t="s">
@@ -4721,7 +4728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>288</v>
       </c>
@@ -4732,11 +4739,11 @@
         <v>171</v>
       </c>
       <c r="D26" t="str">
-        <f>LEFT(B26,1)&amp;"."&amp;RIGHT(C26,1)</f>
+        <f t="shared" si="0"/>
         <v>M.I</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.I.</v>
       </c>
       <c r="F26" t="s">
@@ -4746,7 +4753,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -4757,11 +4764,11 @@
         <v>177</v>
       </c>
       <c r="D27" t="str">
-        <f>LEFT(B27,1)&amp;"."&amp;RIGHT(C27,1)</f>
+        <f t="shared" si="0"/>
         <v>M.O</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.O.</v>
       </c>
       <c r="F27" t="s">
@@ -4771,7 +4778,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>290</v>
       </c>
@@ -4782,11 +4789,11 @@
         <v>179</v>
       </c>
       <c r="D28" t="str">
-        <f>LEFT(B28,1)&amp;"."&amp;RIGHT(C28,1)</f>
+        <f t="shared" si="0"/>
         <v>M.T</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M.T.</v>
       </c>
       <c r="F28" t="s">
@@ -4796,7 +4803,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -4807,11 +4814,11 @@
         <v>182</v>
       </c>
       <c r="D29" t="str">
-        <f>LEFT(B29,1)&amp;"."&amp;RIGHT(C29,1)</f>
+        <f t="shared" si="0"/>
         <v>N.B</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.B.</v>
       </c>
       <c r="F29" t="s">
@@ -4821,7 +4828,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -4832,11 +4839,11 @@
         <v>185</v>
       </c>
       <c r="D30" t="str">
-        <f>LEFT(B30,1)&amp;"."&amp;RIGHT(C30,1)</f>
+        <f t="shared" si="0"/>
         <v>N.V</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.V.</v>
       </c>
       <c r="F30" t="s">
@@ -4846,7 +4853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>293</v>
       </c>
@@ -4857,11 +4864,11 @@
         <v>187</v>
       </c>
       <c r="D31" t="str">
-        <f>LEFT(B31,1)&amp;"."&amp;RIGHT(C31,1)</f>
+        <f t="shared" si="0"/>
         <v>N.H</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.H.</v>
       </c>
       <c r="F31" t="s">
@@ -4871,7 +4878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>294</v>
       </c>
@@ -4882,11 +4889,11 @@
         <v>189</v>
       </c>
       <c r="D32" t="str">
-        <f>LEFT(B32,1)&amp;"."&amp;RIGHT(C32,1)</f>
+        <f t="shared" si="0"/>
         <v>N.J</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.J.</v>
       </c>
       <c r="F32" t="s">
@@ -4902,7 +4909,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>295</v>
       </c>
@@ -4913,11 +4920,11 @@
         <v>192</v>
       </c>
       <c r="D33" t="str">
-        <f>LEFT(B33,1)&amp;"."&amp;RIGHT(C33,1)</f>
+        <f t="shared" si="0"/>
         <v>N.M</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.M.</v>
       </c>
       <c r="F33" t="s">
@@ -4933,7 +4940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -4944,11 +4951,11 @@
         <v>195</v>
       </c>
       <c r="D34" t="str">
-        <f>LEFT(B34,1)&amp;"."&amp;RIGHT(C34,1)</f>
+        <f t="shared" ref="D34:D65" si="2">LEFT(B34,1)&amp;"."&amp;RIGHT(C34,1)</f>
         <v>N.Y</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.Y.</v>
       </c>
       <c r="F34" t="s">
@@ -4961,7 +4968,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>296</v>
       </c>
@@ -4972,11 +4979,11 @@
         <v>198</v>
       </c>
       <c r="D35" t="str">
-        <f>LEFT(B35,1)&amp;"."&amp;RIGHT(C35,1)</f>
+        <f t="shared" si="2"/>
         <v>N.C</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.C.</v>
       </c>
       <c r="F35" t="s">
@@ -4989,7 +4996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>297</v>
       </c>
@@ -5000,11 +5007,11 @@
         <v>201</v>
       </c>
       <c r="D36" t="str">
-        <f>LEFT(B36,1)&amp;"."&amp;RIGHT(C36,1)</f>
+        <f t="shared" si="2"/>
         <v>N.D</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>N.D.</v>
       </c>
       <c r="F36" t="s">
@@ -5017,7 +5024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -5028,11 +5035,11 @@
         <v>205</v>
       </c>
       <c r="D37" t="str">
-        <f>LEFT(B37,1)&amp;"."&amp;RIGHT(C37,1)</f>
+        <f t="shared" si="2"/>
         <v>O.H</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O.H.</v>
       </c>
       <c r="F37" t="s">
@@ -5042,7 +5049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -5053,11 +5060,11 @@
         <v>207</v>
       </c>
       <c r="D38" t="str">
-        <f>LEFT(B38,1)&amp;"."&amp;RIGHT(C38,1)</f>
+        <f t="shared" si="2"/>
         <v>O.K</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O.K.</v>
       </c>
       <c r="F38" t="s">
@@ -5067,7 +5074,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -5078,11 +5085,11 @@
         <v>209</v>
       </c>
       <c r="D39" t="str">
-        <f>LEFT(B39,1)&amp;"."&amp;RIGHT(C39,1)</f>
+        <f t="shared" si="2"/>
         <v>O.R</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O.R.</v>
       </c>
       <c r="F39" t="s">
@@ -5092,7 +5099,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -5103,11 +5110,11 @@
         <v>212</v>
       </c>
       <c r="D40" t="str">
-        <f>LEFT(B40,1)&amp;"."&amp;RIGHT(C40,1)</f>
+        <f t="shared" si="2"/>
         <v>P.A</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P.A.</v>
       </c>
       <c r="F40" t="s">
@@ -5123,7 +5130,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -5134,11 +5141,11 @@
         <v>214</v>
       </c>
       <c r="D41" t="str">
-        <f>LEFT(B41,1)&amp;"."&amp;RIGHT(C41,1)</f>
+        <f t="shared" si="2"/>
         <v>R.I</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R.I.</v>
       </c>
       <c r="F41" t="s">
@@ -5154,7 +5161,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>301</v>
       </c>
@@ -5165,11 +5172,11 @@
         <v>216</v>
       </c>
       <c r="D42" t="str">
-        <f>LEFT(B42,1)&amp;"."&amp;RIGHT(C42,1)</f>
+        <f t="shared" si="2"/>
         <v>S.C</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S.C.</v>
       </c>
       <c r="F42" t="s">
@@ -5182,7 +5189,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -5193,11 +5200,11 @@
         <v>219</v>
       </c>
       <c r="D43" t="str">
-        <f>LEFT(B43,1)&amp;"."&amp;RIGHT(C43,1)</f>
+        <f t="shared" si="2"/>
         <v>S.D</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S.D.</v>
       </c>
       <c r="F43" t="s">
@@ -5210,7 +5217,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>303</v>
       </c>
@@ -5221,11 +5228,11 @@
         <v>223</v>
       </c>
       <c r="D44" t="str">
-        <f>LEFT(B44,1)&amp;"."&amp;RIGHT(C44,1)</f>
+        <f t="shared" si="2"/>
         <v>T.N</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T.N.</v>
       </c>
       <c r="F44" t="s">
@@ -5235,7 +5242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -5246,11 +5253,11 @@
         <v>225</v>
       </c>
       <c r="D45" t="str">
-        <f>LEFT(B45,1)&amp;"."&amp;RIGHT(C45,1)</f>
+        <f t="shared" si="2"/>
         <v>T.X</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T.X.</v>
       </c>
       <c r="F45" t="s">
@@ -5260,7 +5267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>229</v>
       </c>
@@ -5271,11 +5278,11 @@
         <v>228</v>
       </c>
       <c r="D46" t="str">
-        <f>LEFT(B46,1)&amp;"."&amp;RIGHT(C46,1)</f>
+        <f t="shared" si="2"/>
         <v>U.T</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>U.T.</v>
       </c>
       <c r="F46" t="s">
@@ -5285,7 +5292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>304</v>
       </c>
@@ -5296,11 +5303,11 @@
         <v>230</v>
       </c>
       <c r="D47" t="str">
-        <f>LEFT(B47,1)&amp;"."&amp;RIGHT(C47,1)</f>
+        <f t="shared" si="2"/>
         <v>V.T</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>V.T.</v>
       </c>
       <c r="F47" t="s">
@@ -5313,7 +5320,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>305</v>
       </c>
@@ -5324,11 +5331,11 @@
         <v>233</v>
       </c>
       <c r="D48" t="str">
-        <f>LEFT(B48,1)&amp;"."&amp;RIGHT(C48,1)</f>
+        <f t="shared" si="2"/>
         <v>V.A</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>V.A.</v>
       </c>
       <c r="F48" t="s">
@@ -5341,7 +5348,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -5352,11 +5359,11 @@
         <v>237</v>
       </c>
       <c r="D49" t="str">
-        <f>LEFT(B49,1)&amp;"."&amp;RIGHT(C49,1)</f>
+        <f t="shared" si="2"/>
         <v>W.N</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W.N.</v>
       </c>
       <c r="F49" t="s">
@@ -5369,7 +5376,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>306</v>
       </c>
@@ -5380,11 +5387,11 @@
         <v>239</v>
       </c>
       <c r="D50" t="str">
-        <f>LEFT(B50,1)&amp;"."&amp;RIGHT(C50,1)</f>
+        <f t="shared" si="2"/>
         <v>W.V</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W.V.</v>
       </c>
       <c r="F50" t="s">
@@ -5400,7 +5407,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>307</v>
       </c>
@@ -5411,11 +5418,11 @@
         <v>243</v>
       </c>
       <c r="D51" t="str">
-        <f>LEFT(B51,1)&amp;"."&amp;RIGHT(C51,1)</f>
+        <f t="shared" si="2"/>
         <v>W.S</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W.S.</v>
       </c>
       <c r="F51" t="s">
@@ -5428,7 +5435,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>308</v>
       </c>
@@ -5439,11 +5446,11 @@
         <v>246</v>
       </c>
       <c r="D52" t="str">
-        <f>LEFT(B52,1)&amp;"."&amp;RIGHT(C52,1)</f>
+        <f t="shared" si="2"/>
         <v>W.Y</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W.Y.</v>
       </c>
       <c r="F52" t="s">

--- a/Cities List/50 Largest US Cities 2018.xlsx
+++ b/Cities List/50 Largest US Cities 2018.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\Social-Media-Data-Project\Cities List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{41DFE3B9-89A1-472A-9C8C-D5C835779A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EE09048E-FE9C-421F-B2CC-EC232D6EE313}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{41DFE3B9-89A1-472A-9C8C-D5C835779A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4534F724-68FF-44D4-8F66-164EB81CB9FD}"/>
   <bookViews>
-    <workbookView xWindow="52680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE314214-9AD9-4E90-868A-B43793A5B3D9}"/>
+    <workbookView xWindow="-24120" yWindow="2220" windowWidth="24240" windowHeight="13140" xr2:uid="{CE314214-9AD9-4E90-868A-B43793A5B3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="STATE ABV" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="3" r:id="rId2"/>
+    <sheet name="STATE ABV" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="554">
   <si>
     <t>Rank</t>
   </si>
@@ -1568,6 +1569,135 @@
   </si>
   <si>
     <t>State abv8</t>
+  </si>
+  <si>
+    <t>Albuquerque city</t>
+  </si>
+  <si>
+    <t>Alb</t>
+  </si>
+  <si>
+    <t>Arlington city</t>
+  </si>
+  <si>
+    <t>Arl</t>
+  </si>
+  <si>
+    <t>Atlanta city</t>
+  </si>
+  <si>
+    <t>Atl</t>
+  </si>
+  <si>
+    <t>Austin city</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>Baltimore city</t>
+  </si>
+  <si>
+    <t>Bal</t>
+  </si>
+  <si>
+    <t>Boston city</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Charlotte city</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Chicago city</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Colorado Springs city</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Columbus city</t>
+  </si>
+  <si>
+    <t>Dallas city</t>
+  </si>
+  <si>
+    <t>Denver city</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Detroit city</t>
+  </si>
+  <si>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>El Paso city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El </t>
+  </si>
+  <si>
+    <t>Fort Worth city</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Fresno city</t>
+  </si>
+  <si>
+    <t>Fre</t>
+  </si>
+  <si>
+    <t>Houston city</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t>Indianapolis city</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Jacksonville city</t>
+  </si>
+  <si>
+    <t>Jac</t>
+  </si>
+  <si>
+    <t>Kansas City city</t>
+  </si>
+  <si>
+    <t>Kan</t>
+  </si>
+  <si>
+    <t>City String</t>
+  </si>
+  <si>
+    <t>List Included In</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Search Query Example</t>
   </si>
 </sst>
 </file>
@@ -1950,9 +2080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019F9B2-93E3-4ABA-94A8-2B031CA9F654}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +2091,12 @@
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="13" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2010,72 +2145,85 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
         <f>MID(B2,FIND(",",B2)+2,100)</f>
-        <v>New Mexico</v>
+        <v>New York</v>
       </c>
       <c r="D2" t="str">
         <f>MID(B2,1,FIND(",",B2)-1)</f>
-        <v>Albuquerque city</v>
+        <v>New York city</v>
       </c>
       <c r="E2">
-        <v>560218</v>
+        <v>8398748</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="str">
-        <f>LEFT(D2,3)</f>
-        <v>Alb</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>412</v>
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="N2" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>MID(B3,FIND(",",B3)+2,100)</f>
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="D3" t="str">
         <f>MID(B3,1,FIND(",",B3)-1)</f>
-        <v>Arlington city</v>
+        <v>Los Angeles city</v>
       </c>
       <c r="E3">
-        <v>398112</v>
+        <v>3990456</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="str">
-        <f>LEFT(D3,3)</f>
-        <v>Arl</v>
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="N3" t="s">
         <v>471</v>
@@ -2083,57 +2231,51 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
         <f>MID(B4,FIND(",",B4)+2,100)</f>
-        <v>Georgia</v>
+        <v>Illinois</v>
       </c>
       <c r="D4" t="str">
         <f>MID(B4,1,FIND(",",B4)-1)</f>
-        <v>Atlanta city</v>
+        <v>Chicago city</v>
       </c>
       <c r="E4">
-        <v>498044</v>
+        <v>2705994</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G4" t="str">
         <f>LEFT(D4,3)</f>
-        <v>Atl</v>
+        <v>Chi</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="N4" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <f>MID(B5,FIND(",",B5)+2,100)</f>
@@ -2141,35 +2283,23 @@
       </c>
       <c r="D5" t="str">
         <f>MID(B5,1,FIND(",",B5)-1)</f>
-        <v>Austin city</v>
+        <v>Houston city</v>
       </c>
       <c r="E5">
-        <v>964254</v>
+        <v>2325502</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" t="str">
         <f>LEFT(D5,3)</f>
-        <v>Aus</v>
+        <v>Hou</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>478</v>
+        <v>353</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="N5" t="s">
         <v>471</v>
@@ -2177,84 +2307,84 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C6" t="str">
         <f>MID(B6,FIND(",",B6)+2,100)</f>
-        <v>Maryland</v>
+        <v>Arizona</v>
       </c>
       <c r="D6" t="str">
         <f>MID(B6,1,FIND(",",B6)-1)</f>
-        <v>Baltimore city</v>
+        <v>Phoenix city</v>
       </c>
       <c r="E6">
-        <v>602495</v>
+        <v>1660272</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G6" t="str">
         <f>LEFT(D6,3)</f>
-        <v>Bal</v>
+        <v>Pho</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>402</v>
+        <v>502</v>
+      </c>
+      <c r="N6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C7" t="str">
         <f>MID(B7,FIND(",",B7)+2,100)</f>
-        <v>Massachusetts</v>
+        <v>Pennsylvania</v>
       </c>
       <c r="D7" t="str">
         <f>MID(B7,1,FIND(",",B7)-1)</f>
-        <v>Boston city</v>
+        <v>Philadelphia city</v>
       </c>
       <c r="E7">
-        <v>694583</v>
+        <v>1584138</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G7" t="str">
         <f>LEFT(D7,3)</f>
-        <v>Bos</v>
+        <v>Phi</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>508</v>
+        <v>356</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="N7" t="s">
         <v>471</v>
@@ -2262,37 +2392,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" t="str">
         <f>MID(B8,FIND(",",B8)+2,100)</f>
-        <v>North Carolina</v>
+        <v>Texas</v>
       </c>
       <c r="D8" t="str">
         <f>MID(B8,1,FIND(",",B8)-1)</f>
-        <v>Charlotte city</v>
+        <v>San Antonio city</v>
       </c>
       <c r="E8">
-        <v>872498</v>
+        <v>1532233</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G8" t="str">
         <f>LEFT(D8,3)</f>
-        <v>Cha</v>
+        <v>San</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>321</v>
+        <v>498</v>
       </c>
       <c r="N8" t="s">
         <v>471</v>
@@ -2300,40 +2430,40 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="str">
         <f>MID(B9,FIND(",",B9)+2,100)</f>
-        <v>Illinois</v>
+        <v>California</v>
       </c>
       <c r="D9" t="str">
         <f>MID(B9,1,FIND(",",B9)-1)</f>
-        <v>Chicago city</v>
+        <v>San Diego city</v>
       </c>
       <c r="E9">
-        <v>2705994</v>
+        <v>1425976</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G9" t="str">
         <f>LEFT(D9,3)</f>
-        <v>Chi</v>
+        <v>San</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>476</v>
+        <v>221</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="N9" t="s">
         <v>471</v>
@@ -2341,40 +2471,37 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C10" t="str">
         <f>MID(B10,FIND(",",B10)+2,100)</f>
-        <v>Colorado</v>
+        <v>Texas</v>
       </c>
       <c r="D10" t="str">
         <f>MID(B10,1,FIND(",",B10)-1)</f>
-        <v>Colorado Springs city</v>
+        <v>Dallas city</v>
       </c>
       <c r="E10">
-        <v>472688</v>
+        <v>1345047</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G10" t="str">
         <f>LEFT(D10,3)</f>
-        <v>Col</v>
+        <v>Dal</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
       <c r="N10" t="s">
         <v>471</v>
@@ -2382,40 +2509,37 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f>MID(B11,FIND(",",B11)+2,100)</f>
-        <v>Ohio</v>
+        <v>California</v>
       </c>
       <c r="D11" t="str">
         <f>MID(B11,1,FIND(",",B11)-1)</f>
-        <v>Columbus city</v>
+        <v>San Jose city</v>
       </c>
       <c r="E11">
-        <v>892533</v>
+        <v>1030119</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G11" t="str">
         <f>LEFT(D11,3)</f>
-        <v>Col</v>
+        <v>San</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
@@ -2423,10 +2547,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="str">
         <f>MID(B12,FIND(",",B12)+2,100)</f>
@@ -2434,26 +2558,35 @@
       </c>
       <c r="D12" t="str">
         <f>MID(B12,1,FIND(",",B12)-1)</f>
-        <v>Dallas city</v>
+        <v>Austin city</v>
       </c>
       <c r="E12">
-        <v>1345047</v>
+        <v>964254</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" t="str">
         <f>LEFT(D12,3)</f>
-        <v>Dal</v>
+        <v>Aus</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="N12" t="s">
         <v>471</v>
@@ -2461,37 +2594,43 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" t="str">
         <f>MID(B13,FIND(",",B13)+2,100)</f>
-        <v>Colorado</v>
+        <v>Florida</v>
       </c>
       <c r="D13" t="str">
         <f>MID(B13,1,FIND(",",B13)-1)</f>
-        <v>Denver city</v>
+        <v>Jacksonville city</v>
       </c>
       <c r="E13">
-        <v>716492</v>
+        <v>903889</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G13" t="str">
         <f>LEFT(D13,3)</f>
-        <v>Den</v>
+        <v>Jac</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="N13" t="s">
         <v>471</v>
@@ -2499,37 +2638,37 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" t="str">
         <f>MID(B14,FIND(",",B14)+2,100)</f>
-        <v>Michigan</v>
+        <v>Texas</v>
       </c>
       <c r="D14" t="str">
         <f>MID(B14,1,FIND(",",B14)-1)</f>
-        <v>Detroit city</v>
+        <v>Fort Worth city</v>
       </c>
       <c r="E14">
-        <v>672662</v>
+        <v>895008</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G14" t="str">
         <f>LEFT(D14,3)</f>
-        <v>Det</v>
+        <v>For</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
@@ -2537,34 +2676,40 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="str">
         <f>MID(B15,FIND(",",B15)+2,100)</f>
-        <v>Texas</v>
+        <v>Ohio</v>
       </c>
       <c r="D15" t="str">
         <f>MID(B15,1,FIND(",",B15)-1)</f>
-        <v>El Paso city</v>
+        <v>Columbus city</v>
       </c>
       <c r="E15">
-        <v>682669</v>
+        <v>892533</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G15" t="str">
         <f>LEFT(D15,3)</f>
-        <v xml:space="preserve">El </v>
+        <v>Col</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>509</v>
+        <v>370</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="N15" t="s">
         <v>471</v>
@@ -2572,37 +2717,46 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="str">
         <f>MID(B16,FIND(",",B16)+2,100)</f>
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="D16" t="str">
         <f>MID(B16,1,FIND(",",B16)-1)</f>
-        <v>Fort Worth city</v>
+        <v>San Francisco city</v>
       </c>
       <c r="E16">
-        <v>895008</v>
+        <v>883305</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" t="str">
         <f>LEFT(D16,3)</f>
-        <v>For</v>
+        <v>San</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>496</v>
+        <v>322</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>506</v>
+        <v>313</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="N16" t="s">
         <v>471</v>
@@ -2610,69 +2764,78 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C17" t="str">
         <f>MID(B17,FIND(",",B17)+2,100)</f>
-        <v>California</v>
+        <v>North Carolina</v>
       </c>
       <c r="D17" t="str">
         <f>MID(B17,1,FIND(",",B17)-1)</f>
-        <v>Fresno city</v>
+        <v>Charlotte city</v>
       </c>
       <c r="E17">
-        <v>530093</v>
+        <v>872498</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G17" t="str">
         <f>LEFT(D17,3)</f>
-        <v>Fre</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>421</v>
+        <v>Cha</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>422</v>
+        <v>373</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="N17" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>487</v>
       </c>
       <c r="C18" t="str">
         <f>MID(B18,FIND(",",B18)+2,100)</f>
-        <v>Texas</v>
+        <v>Indiana</v>
       </c>
       <c r="D18" t="str">
         <f>MID(B18,1,FIND(",",B18)-1)</f>
-        <v>Houston city</v>
+        <v>Indianapolis city</v>
       </c>
       <c r="E18">
-        <v>2325502</v>
+        <v>867125</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G18" t="str">
         <f>LEFT(D18,3)</f>
-        <v>Hou</v>
+        <v>Ind</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="N18" t="s">
         <v>471</v>
@@ -2680,40 +2843,37 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
         <f>MID(B19,FIND(",",B19)+2,100)</f>
-        <v>Indiana</v>
+        <v>Washington</v>
       </c>
       <c r="D19" t="str">
         <f>MID(B19,1,FIND(",",B19)-1)</f>
-        <v>Indianapolis city</v>
+        <v>Seattle city</v>
       </c>
       <c r="E19">
-        <v>867125</v>
+        <v>744955</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G19" t="str">
         <f>LEFT(D19,3)</f>
-        <v>Ind</v>
+        <v>Sea</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="N19" t="s">
         <v>471</v>
@@ -2721,43 +2881,37 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" t="str">
         <f>MID(B20,FIND(",",B20)+2,100)</f>
-        <v>Florida</v>
+        <v>Colorado</v>
       </c>
       <c r="D20" t="str">
         <f>MID(B20,1,FIND(",",B20)-1)</f>
-        <v>Jacksonville city</v>
+        <v>Denver city</v>
       </c>
       <c r="E20">
-        <v>903889</v>
+        <v>716492</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G20" t="str">
         <f>LEFT(D20,3)</f>
-        <v>Jac</v>
+        <v>Den</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>505</v>
+        <v>328</v>
       </c>
       <c r="N20" t="s">
         <v>471</v>
@@ -2765,37 +2919,34 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C21" t="str">
         <f>MID(B21,FIND(",",B21)+2,100)</f>
-        <v>Missouri</v>
+        <v>District of Columbia</v>
       </c>
       <c r="D21" t="str">
         <f>MID(B21,1,FIND(",",B21)-1)</f>
-        <v>Kansas City city</v>
+        <v>Washington city</v>
       </c>
       <c r="E21">
-        <v>491918</v>
+        <v>702455</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G21" t="str">
         <f>LEFT(D21,3)</f>
-        <v>Kan</v>
+        <v>Was</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>440</v>
+        <v>132</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>442</v>
+        <v>344</v>
       </c>
       <c r="N21" t="s">
         <v>471</v>
@@ -2803,43 +2954,40 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22" t="str">
         <f>MID(B22,FIND(",",B22)+2,100)</f>
-        <v>Nevada</v>
+        <v>Massachusetts</v>
       </c>
       <c r="D22" t="str">
         <f>MID(B22,1,FIND(",",B22)-1)</f>
-        <v>Las Vegas city</v>
+        <v>Boston city</v>
       </c>
       <c r="E22">
-        <v>644644</v>
+        <v>694583</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G22" t="str">
         <f>LEFT(D22,3)</f>
-        <v>Las</v>
+        <v>Bos</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="N22" t="s">
         <v>471</v>
@@ -2847,40 +2995,34 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
         <f>MID(B23,FIND(",",B23)+2,100)</f>
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="D23" t="str">
         <f>MID(B23,1,FIND(",",B23)-1)</f>
-        <v>Long Beach city</v>
+        <v>El Paso city</v>
       </c>
       <c r="E23">
-        <v>467354</v>
+        <v>682669</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G23" t="str">
         <f>LEFT(D23,3)</f>
-        <v>Lon</v>
+        <v xml:space="preserve">El </v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="N23" t="s">
         <v>471</v>
@@ -2888,39 +3030,37 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
         <f>MID(B24,FIND(",",B24)+2,100)</f>
-        <v>California</v>
+        <v>Michigan</v>
       </c>
       <c r="D24" t="str">
         <f>MID(B24,1,FIND(",",B24)-1)</f>
-        <v>Los Angeles city</v>
+        <v>Detroit city</v>
       </c>
       <c r="E24">
-        <v>3990456</v>
+        <v>672662</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>161</v>
+        <v>72</v>
+      </c>
+      <c r="G24" t="str">
+        <f>LEFT(D24,3)</f>
+        <v>Det</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>501</v>
+        <v>376</v>
       </c>
       <c r="N24" t="s">
         <v>471</v>
@@ -2928,34 +3068,40 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C25" t="str">
         <f>MID(B25,FIND(",",B25)+2,100)</f>
-        <v>Kentucky</v>
+        <v>Tennessee</v>
       </c>
       <c r="D25" t="str">
         <f>MID(B25,1,FIND(",",B25)-1)</f>
-        <v>Louisville/Jefferson County</v>
+        <v>Nashville-Davidson</v>
       </c>
       <c r="E25">
-        <v>620118</v>
+        <v>669053</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" t="str">
         <f>LEFT(D25,3)</f>
-        <v>Lou</v>
+        <v>Nas</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="N25" t="s">
         <v>471</v>
@@ -2963,34 +3109,43 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="str">
         <f>MID(B26,FIND(",",B26)+2,100)</f>
-        <v>Tennessee</v>
+        <v>Oregon</v>
       </c>
       <c r="D26" t="str">
         <f>MID(B26,1,FIND(",",B26)-1)</f>
-        <v>Memphis city</v>
+        <v>Portland city</v>
       </c>
       <c r="E26">
-        <v>650618</v>
+        <v>653115</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" t="str">
         <f>LEFT(D26,3)</f>
-        <v>Mem</v>
+        <v>Por</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="N26" t="s">
         <v>471</v>
@@ -2998,69 +3153,78 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" t="str">
         <f>MID(B27,FIND(",",B27)+2,100)</f>
-        <v>Arizona</v>
+        <v>Tennessee</v>
       </c>
       <c r="D27" t="str">
         <f>MID(B27,1,FIND(",",B27)-1)</f>
-        <v>Mesa city</v>
+        <v>Memphis city</v>
       </c>
       <c r="E27">
-        <v>508958</v>
+        <v>650618</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G27" t="str">
         <f>LEFT(D27,3)</f>
-        <v>Mes</v>
+        <v>Mem</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="N27" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C28" t="str">
         <f>MID(B28,FIND(",",B28)+2,100)</f>
-        <v>Florida</v>
+        <v>Oklahoma</v>
       </c>
       <c r="D28" t="str">
         <f>MID(B28,1,FIND(",",B28)-1)</f>
-        <v>Miami city</v>
+        <v>Oklahoma City city</v>
       </c>
       <c r="E28">
-        <v>470914</v>
+        <v>649021</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G28" t="str">
         <f>LEFT(D28,3)</f>
-        <v>Mia</v>
+        <v>Okl</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K28" s="2">
-        <v>305</v>
+        <v>493</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="N28" t="s">
         <v>471</v>
@@ -3068,476 +3232,444 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="str">
         <f>MID(B29,FIND(",",B29)+2,100)</f>
-        <v>Wisconsin</v>
+        <v>Nevada</v>
       </c>
       <c r="D29" t="str">
         <f>MID(B29,1,FIND(",",B29)-1)</f>
-        <v>Milwaukee city</v>
+        <v>Las Vegas city</v>
       </c>
       <c r="E29">
-        <v>592025</v>
+        <v>644644</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" t="str">
         <f>LEFT(D29,3)</f>
-        <v>Mil</v>
+        <v>Las</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="N29" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="C30" t="str">
         <f>MID(B30,FIND(",",B30)+2,100)</f>
-        <v>Minnesota</v>
+        <v>Kentucky</v>
       </c>
       <c r="D30" t="str">
         <f>MID(B30,1,FIND(",",B30)-1)</f>
-        <v>Minneapolis city</v>
+        <v>Louisville/Jefferson County</v>
       </c>
       <c r="E30">
-        <v>425403</v>
+        <v>620118</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G30" t="str">
         <f>LEFT(D30,3)</f>
-        <v>Min</v>
+        <v>Lou</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>468</v>
+        <v>399</v>
+      </c>
+      <c r="N30" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>485</v>
+        <v>28</v>
       </c>
       <c r="C31" t="str">
         <f>MID(B31,FIND(",",B31)+2,100)</f>
-        <v>Tennessee</v>
+        <v>Maryland</v>
       </c>
       <c r="D31" t="str">
         <f>MID(B31,1,FIND(",",B31)-1)</f>
-        <v>Nashville-Davidson</v>
+        <v>Baltimore city</v>
       </c>
       <c r="E31">
-        <v>669053</v>
+        <v>602495</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G31" t="str">
         <f>LEFT(D31,3)</f>
-        <v>Nas</v>
+        <v>Bal</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>377</v>
+        <v>396</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N31" t="s">
-        <v>471</v>
+        <v>400</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C32" t="str">
         <f>MID(B32,FIND(",",B32)+2,100)</f>
-        <v>Louisiana</v>
+        <v>Wisconsin</v>
       </c>
       <c r="D32" t="str">
         <f>MID(B32,1,FIND(",",B32)-1)</f>
-        <v>New Orleans city</v>
+        <v>Milwaukee city</v>
       </c>
       <c r="E32">
-        <v>391006</v>
+        <v>592025</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G32" t="str">
         <f>LEFT(D32,3)</f>
-        <v>New</v>
+        <v>Mil</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>473</v>
+        <v>406</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="N32" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C33" t="str">
         <f>MID(B33,FIND(",",B33)+2,100)</f>
-        <v>New York</v>
+        <v>New Mexico</v>
       </c>
       <c r="D33" t="str">
         <f>MID(B33,1,FIND(",",B33)-1)</f>
-        <v>New York city</v>
+        <v>Albuquerque city</v>
       </c>
       <c r="E33">
-        <v>8398748</v>
+        <v>560218</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>499</v>
+        <v>79</v>
+      </c>
+      <c r="G33" t="str">
+        <f>LEFT(D33,3)</f>
+        <v>Alb</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="N33" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C34" t="str">
         <f>MID(B34,FIND(",",B34)+2,100)</f>
-        <v>California</v>
+        <v>Arizona</v>
       </c>
       <c r="D34" t="str">
         <f>MID(B34,1,FIND(",",B34)-1)</f>
-        <v>Oakland city</v>
+        <v>Tucson city</v>
       </c>
       <c r="E34">
-        <v>429082</v>
+        <v>545975</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G34" t="str">
         <f>LEFT(D34,3)</f>
-        <v>Oak</v>
+        <v>Tuc</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="N34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C35" t="str">
         <f>MID(B35,FIND(",",B35)+2,100)</f>
-        <v>Oklahoma</v>
+        <v>California</v>
       </c>
       <c r="D35" t="str">
         <f>MID(B35,1,FIND(",",B35)-1)</f>
-        <v>Oklahoma City city</v>
+        <v>Fresno city</v>
       </c>
       <c r="E35">
-        <v>649021</v>
+        <v>530093</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G35" t="str">
         <f>LEFT(D35,3)</f>
-        <v>Okl</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>388</v>
+        <v>Fre</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="N35" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C36" t="str">
         <f>MID(B36,FIND(",",B36)+2,100)</f>
-        <v>Nebraska</v>
+        <v>Arizona</v>
       </c>
       <c r="D36" t="str">
         <f>MID(B36,1,FIND(",",B36)-1)</f>
-        <v>Omaha city</v>
+        <v>Mesa city</v>
       </c>
       <c r="E36">
-        <v>468262</v>
+        <v>508958</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G36" t="str">
         <f>LEFT(D36,3)</f>
-        <v>Oma</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>428</v>
+        <v>Mes</v>
       </c>
       <c r="N36" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C37" t="str">
         <f>MID(B37,FIND(",",B37)+2,100)</f>
-        <v>Pennsylvania</v>
+        <v>California</v>
       </c>
       <c r="D37" t="str">
         <f>MID(B37,1,FIND(",",B37)-1)</f>
-        <v>Philadelphia city</v>
+        <v>Sacramento city</v>
       </c>
       <c r="E37">
-        <v>1584138</v>
+        <v>508529</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G37" t="str">
         <f>LEFT(D37,3)</f>
-        <v>Phi</v>
+        <v>Sac</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="N37" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C38" t="str">
         <f>MID(B38,FIND(",",B38)+2,100)</f>
-        <v>Arizona</v>
+        <v>Georgia</v>
       </c>
       <c r="D38" t="str">
         <f>MID(B38,1,FIND(",",B38)-1)</f>
-        <v>Phoenix city</v>
+        <v>Atlanta city</v>
       </c>
       <c r="E38">
-        <v>1660272</v>
+        <v>498044</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G38" t="str">
         <f>LEFT(D38,3)</f>
-        <v>Pho</v>
+        <v>Atl</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>502</v>
+        <v>436</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="N38" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C39" t="str">
         <f>MID(B39,FIND(",",B39)+2,100)</f>
-        <v>Oregon</v>
+        <v>Missouri</v>
       </c>
       <c r="D39" t="str">
         <f>MID(B39,1,FIND(",",B39)-1)</f>
-        <v>Portland city</v>
+        <v>Kansas City city</v>
       </c>
       <c r="E39">
-        <v>653115</v>
+        <v>491918</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G39" t="str">
         <f>LEFT(D39,3)</f>
-        <v>Por</v>
+        <v>Kan</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="N39" t="s">
         <v>471</v>
@@ -3545,174 +3677,171 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="str">
         <f>MID(B40,FIND(",",B40)+2,100)</f>
-        <v>North Carolina</v>
+        <v>Colorado</v>
       </c>
       <c r="D40" t="str">
         <f>MID(B40,1,FIND(",",B40)-1)</f>
-        <v>Raleigh city</v>
+        <v>Colorado Springs city</v>
       </c>
       <c r="E40">
-        <v>469298</v>
+        <v>472688</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" t="str">
         <f>LEFT(D40,3)</f>
-        <v>Ral</v>
+        <v>Col</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="N40" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41" t="str">
         <f>MID(B41,FIND(",",B41)+2,100)</f>
-        <v>California</v>
+        <v>Florida</v>
       </c>
       <c r="D41" t="str">
         <f>MID(B41,1,FIND(",",B41)-1)</f>
-        <v>Sacramento city</v>
+        <v>Miami city</v>
       </c>
       <c r="E41">
-        <v>508529</v>
+        <v>470914</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G41" t="str">
         <f>LEFT(D41,3)</f>
-        <v>Sac</v>
+        <v>Mia</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
+      </c>
+      <c r="K41" s="2">
+        <v>305</v>
       </c>
       <c r="N41" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C42" t="str">
         <f>MID(B42,FIND(",",B42)+2,100)</f>
-        <v>Texas</v>
+        <v>North Carolina</v>
       </c>
       <c r="D42" t="str">
         <f>MID(B42,1,FIND(",",B42)-1)</f>
-        <v>San Antonio city</v>
+        <v>Raleigh city</v>
       </c>
       <c r="E42">
-        <v>1532233</v>
+        <v>469298</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G42" t="str">
         <f>LEFT(D42,3)</f>
-        <v>San</v>
+        <v>Ral</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>310</v>
+        <v>448</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>498</v>
+        <v>449</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="N42" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C43" t="str">
         <f>MID(B43,FIND(",",B43)+2,100)</f>
-        <v>California</v>
+        <v>Nebraska</v>
       </c>
       <c r="D43" t="str">
         <f>MID(B43,1,FIND(",",B43)-1)</f>
-        <v>San Diego city</v>
+        <v>Omaha city</v>
       </c>
       <c r="E43">
-        <v>1425976</v>
+        <v>468262</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="G43" t="str">
         <f>LEFT(D43,3)</f>
-        <v>San</v>
+        <v>Oma</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>219</v>
+        <v>454</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="N43" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C44" t="str">
         <f>MID(B44,FIND(",",B44)+2,100)</f>
@@ -3720,35 +3849,29 @@
       </c>
       <c r="D44" t="str">
         <f>MID(B44,1,FIND(",",B44)-1)</f>
-        <v>San Francisco city</v>
+        <v>Long Beach city</v>
       </c>
       <c r="E44">
-        <v>883305</v>
+        <v>467354</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G44" t="str">
         <f>LEFT(D44,3)</f>
-        <v>San</v>
+        <v>Lon</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>313</v>
+        <v>491</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="N44" t="s">
         <v>471</v>
@@ -3756,276 +3879,288 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C45" t="str">
         <f>MID(B45,FIND(",",B45)+2,100)</f>
-        <v>California</v>
+        <v>Virginia</v>
       </c>
       <c r="D45" t="str">
         <f>MID(B45,1,FIND(",",B45)-1)</f>
-        <v>San Jose city</v>
+        <v>Virginia Beach city</v>
       </c>
       <c r="E45">
-        <v>1030119</v>
+        <v>450189</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G45" t="str">
         <f>LEFT(D45,3)</f>
-        <v>San</v>
+        <v>Vir</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>311</v>
+        <v>457</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>497</v>
+        <v>458</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="N45" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C46" t="str">
         <f>MID(B46,FIND(",",B46)+2,100)</f>
-        <v>Washington</v>
+        <v>California</v>
       </c>
       <c r="D46" t="str">
         <f>MID(B46,1,FIND(",",B46)-1)</f>
-        <v>Seattle city</v>
+        <v>Oakland city</v>
       </c>
       <c r="E46">
-        <v>744955</v>
+        <v>429082</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G46" t="str">
         <f>LEFT(D46,3)</f>
-        <v>Sea</v>
+        <v>Oak</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>326</v>
+        <v>461</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="N46" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" t="str">
         <f>MID(B47,FIND(",",B47)+2,100)</f>
-        <v>Florida</v>
+        <v>Minnesota</v>
       </c>
       <c r="D47" t="str">
         <f>MID(B47,1,FIND(",",B47)-1)</f>
-        <v>Tampa city</v>
+        <v>Minneapolis city</v>
       </c>
       <c r="E47">
-        <v>392890</v>
+        <v>425403</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G47" t="str">
         <f>LEFT(D47,3)</f>
-        <v>Tam</v>
+        <v>Min</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N47" t="s">
-        <v>471</v>
+        <v>465</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C48" t="str">
         <f>MID(B48,FIND(",",B48)+2,100)</f>
-        <v>Arizona</v>
+        <v>Oklahoma</v>
       </c>
       <c r="D48" t="str">
         <f>MID(B48,1,FIND(",",B48)-1)</f>
-        <v>Tucson city</v>
+        <v>Tulsa city</v>
       </c>
       <c r="E48">
-        <v>545975</v>
+        <v>400669</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G48" t="str">
         <f>LEFT(D48,3)</f>
-        <v>Tuc</v>
+        <v>Tul</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="N48" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="str">
         <f>MID(B49,FIND(",",B49)+2,100)</f>
-        <v>Oklahoma</v>
+        <v>Texas</v>
       </c>
       <c r="D49" t="str">
         <f>MID(B49,1,FIND(",",B49)-1)</f>
-        <v>Tulsa city</v>
+        <v>Arlington city</v>
       </c>
       <c r="E49">
-        <v>400669</v>
+        <v>398112</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G49" t="str">
         <f>LEFT(D49,3)</f>
-        <v>Tul</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>469</v>
+        <v>Arl</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C50" t="str">
         <f>MID(B50,FIND(",",B50)+2,100)</f>
-        <v>Virginia</v>
+        <v>Florida</v>
       </c>
       <c r="D50" t="str">
         <f>MID(B50,1,FIND(",",B50)-1)</f>
-        <v>Virginia Beach city</v>
+        <v>Tampa city</v>
       </c>
       <c r="E50">
-        <v>450189</v>
+        <v>392890</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G50" t="str">
         <f>LEFT(D50,3)</f>
-        <v>Vir</v>
+        <v>Tam</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C51" t="str">
         <f>MID(B51,FIND(",",B51)+2,100)</f>
-        <v>District of Columbia</v>
+        <v>Louisiana</v>
       </c>
       <c r="D51" t="str">
         <f>MID(B51,1,FIND(",",B51)-1)</f>
-        <v>Washington city</v>
+        <v>New Orleans city</v>
       </c>
       <c r="E51">
-        <v>702455</v>
+        <v>391006</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G51" t="str">
         <f>LEFT(D51,3)</f>
-        <v>Was</v>
+        <v>New</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>344</v>
+        <v>474</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="N51" t="s">
         <v>471</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{F093F0AD-A504-47B5-9EF7-9358C0F099EA}">
+  <autoFilter ref="A1:N51" xr:uid="{F093F0AD-A504-47B5-9EF7-9358C0F099EA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
-      <sortCondition ref="D1"/>
+      <sortCondition descending="1" ref="E1:E51"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N30" r:id="rId1" xr:uid="{34303163-030C-4859-93B4-575F0A461F40}"/>
+    <hyperlink ref="N47" r:id="rId1" xr:uid="{34303163-030C-4859-93B4-575F0A461F40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4033,6 +4168,574 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0383402-B04A-4DEB-806C-0BB7F078220B}">
+  <dimension ref="G8:O40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="s">
+        <v>334</v>
+      </c>
+      <c r="N8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L9" t="s">
+        <v>410</v>
+      </c>
+      <c r="M9" t="s">
+        <v>411</v>
+      </c>
+      <c r="N9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>515</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" t="s">
+        <v>431</v>
+      </c>
+      <c r="K11" t="s">
+        <v>432</v>
+      </c>
+      <c r="L11" t="s">
+        <v>433</v>
+      </c>
+      <c r="M11" t="s">
+        <v>436</v>
+      </c>
+      <c r="N11" t="s">
+        <v>434</v>
+      </c>
+      <c r="O11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>517</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>518</v>
+      </c>
+      <c r="J12" t="s">
+        <v>478</v>
+      </c>
+      <c r="K12" t="s">
+        <v>479</v>
+      </c>
+      <c r="L12" t="s">
+        <v>480</v>
+      </c>
+      <c r="M12" t="s">
+        <v>481</v>
+      </c>
+      <c r="N12" t="s">
+        <v>482</v>
+      </c>
+      <c r="O12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>520</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" t="s">
+        <v>397</v>
+      </c>
+      <c r="L13" t="s">
+        <v>398</v>
+      </c>
+      <c r="M13" t="s">
+        <v>400</v>
+      </c>
+      <c r="N13" t="s">
+        <v>401</v>
+      </c>
+      <c r="O13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" t="s">
+        <v>346</v>
+      </c>
+      <c r="L14" t="s">
+        <v>347</v>
+      </c>
+      <c r="M14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>524</v>
+      </c>
+      <c r="J15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K15" t="s">
+        <v>373</v>
+      </c>
+      <c r="L15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>526</v>
+      </c>
+      <c r="J16" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" t="s">
+        <v>476</v>
+      </c>
+      <c r="M16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>527</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>528</v>
+      </c>
+      <c r="J17" t="s">
+        <v>332</v>
+      </c>
+      <c r="K17" t="s">
+        <v>333</v>
+      </c>
+      <c r="L17" t="s">
+        <v>331</v>
+      </c>
+      <c r="M17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>529</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>528</v>
+      </c>
+      <c r="J18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18" t="s">
+        <v>321</v>
+      </c>
+      <c r="M18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J19" t="s">
+        <v>362</v>
+      </c>
+      <c r="K19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>532</v>
+      </c>
+      <c r="J20" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>533</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>534</v>
+      </c>
+      <c r="J21" t="s">
+        <v>374</v>
+      </c>
+      <c r="K21" t="s">
+        <v>375</v>
+      </c>
+      <c r="L21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>536</v>
+      </c>
+      <c r="J22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>537</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>538</v>
+      </c>
+      <c r="J23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K23" t="s">
+        <v>496</v>
+      </c>
+      <c r="L23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>540</v>
+      </c>
+      <c r="J24" t="s">
+        <v>421</v>
+      </c>
+      <c r="K24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25" t="s">
+        <v>353</v>
+      </c>
+      <c r="K25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>543</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>544</v>
+      </c>
+      <c r="J26" t="s">
+        <v>364</v>
+      </c>
+      <c r="K26" t="s">
+        <v>324</v>
+      </c>
+      <c r="L26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>545</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>546</v>
+      </c>
+      <c r="J27" t="s">
+        <v>337</v>
+      </c>
+      <c r="K27" t="s">
+        <v>338</v>
+      </c>
+      <c r="L27" t="s">
+        <v>320</v>
+      </c>
+      <c r="M27" t="s">
+        <v>339</v>
+      </c>
+      <c r="N27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>547</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>548</v>
+      </c>
+      <c r="J28" t="s">
+        <v>440</v>
+      </c>
+      <c r="K28" t="s">
+        <v>441</v>
+      </c>
+      <c r="L28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>549</v>
+      </c>
+      <c r="I32" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>511</v>
+      </c>
+      <c r="I33" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>512</v>
+      </c>
+      <c r="I35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>408</v>
+      </c>
+      <c r="I36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>409</v>
+      </c>
+      <c r="I37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>410</v>
+      </c>
+      <c r="I38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>411</v>
+      </c>
+      <c r="I39" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>412</v>
+      </c>
+      <c r="I40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C88CD-D08C-4C4F-A13E-1DA507AF6F38}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -4951,7 +5654,7 @@
         <v>195</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="2">LEFT(B34,1)&amp;"."&amp;RIGHT(C34,1)</f>
+        <f t="shared" ref="D34:D52" si="2">LEFT(B34,1)&amp;"."&amp;RIGHT(C34,1)</f>
         <v>N.Y</v>
       </c>
       <c r="E34" t="str">
